--- a/Team-Data/2012-13/1-17-2012-13.xlsx
+++ b/Team-Data/2012-13/1-17-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -789,7 +856,7 @@
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -971,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -998,7 +1065,7 @@
         <v>19</v>
       </c>
       <c r="BB3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>1.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1120,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1129,7 +1196,7 @@
         <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1153,7 +1220,7 @@
         <v>7</v>
       </c>
       <c r="AS4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT4" t="n">
         <v>16</v>
@@ -1177,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
         <v>15</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1490,7 +1557,7 @@
         <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1514,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1760,7 @@
         <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1726,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-3</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
@@ -1884,7 +1951,7 @@
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
         <v>14</v>
@@ -1893,7 +1960,7 @@
         <v>13</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>14</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
@@ -2030,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2054,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -2122,19 +2189,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>0.359</v>
+        <v>0.368</v>
       </c>
       <c r="H10" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I10" t="n">
         <v>35.9</v>
@@ -2152,25 +2219,25 @@
         <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O10" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P10" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.709</v>
+        <v>0.714</v>
       </c>
       <c r="R10" t="n">
         <v>12.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T10" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U10" t="n">
         <v>20.3</v>
@@ -2194,25 +2261,25 @@
         <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2221,7 +2288,7 @@
         <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
@@ -2233,7 +2300,7 @@
         <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2248,7 +2315,7 @@
         <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2266,16 +2333,16 @@
         <v>22</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2403,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,10 +2479,10 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>22</v>
@@ -2445,7 +2512,7 @@
         <v>27</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>1.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2573,7 +2640,7 @@
         <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
         <v>18</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>4</v>
@@ -2603,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR12" t="n">
         <v>23</v>
@@ -2624,13 +2691,13 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
         <v>17</v>
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>2</v>
       </c>
       <c r="AD13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE13" t="n">
         <v>5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>9</v>
@@ -2785,7 +2852,7 @@
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.775</v>
+        <v>0.769</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J14" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
@@ -2877,40 +2944,40 @@
         <v>7.3</v>
       </c>
       <c r="M14" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O14" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P14" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.716</v>
+        <v>0.718</v>
       </c>
       <c r="R14" t="n">
         <v>11.3</v>
       </c>
       <c r="S14" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T14" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W14" t="n">
         <v>10.5</v>
       </c>
       <c r="X14" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y14" t="n">
         <v>4.5</v>
@@ -2919,19 +2986,19 @@
         <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="AC14" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AD14" t="n">
         <v>9</v>
       </c>
-      <c r="AD14" t="n">
-        <v>5</v>
-      </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2946,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2970,19 +3037,19 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS14" t="n">
         <v>18</v>
       </c>
-      <c r="AS14" t="n">
-        <v>17</v>
-      </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2997,7 +3064,7 @@
         <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>0.436</v>
+        <v>0.447</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.456</v>
@@ -3059,25 +3126,25 @@
         <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O15" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P15" t="n">
         <v>28.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
         <v>45.3</v>
@@ -3086,31 +3153,31 @@
         <v>22.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.1</v>
+        <v>103.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3128,10 +3195,10 @@
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3152,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
         <v>4</v>
@@ -3164,19 +3231,19 @@
         <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3185,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>3.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
         <v>5</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>13</v>
@@ -3358,7 +3425,7 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
         <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,19 +3481,19 @@
         <v>38.2</v>
       </c>
       <c r="J17" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.488</v>
       </c>
       <c r="L17" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="M17" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.387</v>
+        <v>0.391</v>
       </c>
       <c r="O17" t="n">
         <v>17.2</v>
@@ -3435,46 +3502,46 @@
         <v>22.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R17" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="S17" t="n">
         <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U17" t="n">
         <v>22.4</v>
       </c>
       <c r="V17" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB17" t="n">
         <v>102.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
         <v>4</v>
@@ -3501,10 +3568,10 @@
         <v>6</v>
       </c>
       <c r="AM17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
         <v>14</v>
@@ -3531,16 +3598,16 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
         <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>0.526</v>
+        <v>0.514</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J18" t="n">
-        <v>86.09999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.432</v>
@@ -3605,31 +3672,31 @@
         <v>6.1</v>
       </c>
       <c r="M18" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O18" t="n">
         <v>15.9</v>
       </c>
       <c r="P18" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R18" t="n">
         <v>12.8</v>
       </c>
       <c r="S18" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T18" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U18" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V18" t="n">
         <v>14.4</v>
@@ -3638,7 +3705,7 @@
         <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Y18" t="n">
         <v>4.3</v>
@@ -3647,31 +3714,31 @@
         <v>19.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB18" t="n">
         <v>96.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>13</v>
       </c>
       <c r="AG18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI18" t="n">
         <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3689,25 +3756,25 @@
         <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
         <v>9</v>
@@ -3722,16 +3789,16 @@
         <v>5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
         <v>16</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" t="n">
-        <v>0.444</v>
+        <v>0.457</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J19" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.427</v>
+        <v>0.429</v>
       </c>
       <c r="L19" t="n">
         <v>5.6</v>
@@ -3790,31 +3857,31 @@
         <v>18.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.295</v>
+        <v>0.297</v>
       </c>
       <c r="O19" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R19" t="n">
         <v>13.7</v>
       </c>
       <c r="S19" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T19" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
         <v>7.7</v>
@@ -3829,22 +3896,22 @@
         <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.8</v>
+        <v>95.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.9</v>
+        <v>-1.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3871,13 +3938,13 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3889,28 +3956,28 @@
         <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AV19" t="n">
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX19" t="n">
         <v>12</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BC19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -4041,7 +4108,7 @@
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>16</v>
@@ -4053,7 +4120,7 @@
         <v>9</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
@@ -4065,16 +4132,16 @@
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU20" t="n">
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
         <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>0.658</v>
+        <v>0.649</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J21" t="n">
-        <v>83.40000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K21" t="n">
         <v>0.445</v>
@@ -4151,34 +4218,34 @@
         <v>11.2</v>
       </c>
       <c r="M21" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="O21" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="P21" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R21" t="n">
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="W21" t="n">
         <v>8.4</v>
@@ -4199,10 +4266,10 @@
         <v>101.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>5</v>
@@ -4217,13 +4284,13 @@
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,13 +4302,13 @@
         <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4250,19 +4317,19 @@
         <v>23</v>
       </c>
       <c r="AT21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AU21" t="n">
         <v>26</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>27</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4435,13 +4502,13 @@
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4453,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="BA22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -4578,7 +4645,7 @@
         <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
         <v>7</v>
@@ -4587,7 +4654,7 @@
         <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>17</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4766,7 +4833,7 @@
         <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>20</v>
@@ -4775,7 +4842,7 @@
         <v>18</v>
       </c>
       <c r="AM24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
         <v>10</v>
@@ -4793,19 +4860,19 @@
         <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT24" t="n">
         <v>23</v>
       </c>
       <c r="AU24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX24" t="n">
         <v>18</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -4852,73 +4919,73 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" t="n">
         <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>0.317</v>
+        <v>0.325</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J25" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M25" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O25" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="P25" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R25" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S25" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T25" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U25" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V25" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X25" t="n">
         <v>5.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
         <v>18.2</v>
@@ -4930,7 +4997,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
@@ -4942,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>10</v>
@@ -4951,19 +5018,19 @@
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
       </c>
       <c r="AM25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN25" t="n">
         <v>27</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
         <v>26</v>
@@ -4975,10 +5042,10 @@
         <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AT25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU25" t="n">
         <v>15</v>
@@ -4987,13 +5054,13 @@
         <v>5</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX25" t="n">
         <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ25" t="n">
         <v>21</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5148,7 +5215,7 @@
         <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
         <v>13</v>
@@ -5169,7 +5236,7 @@
         <v>15</v>
       </c>
       <c r="AW26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5342,10 +5409,10 @@
         <v>29</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW28" t="n">
         <v>5</v>
@@ -5542,7 +5609,7 @@
         <v>13</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
@@ -5685,7 +5752,7 @@
         <v>10</v>
       </c>
       <c r="AM29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
         <v>20</v>
@@ -5703,7 +5770,7 @@
         <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5721,7 +5788,7 @@
         <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5849,7 +5916,7 @@
         <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>18</v>
@@ -5858,7 +5925,7 @@
         <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
         <v>13</v>
@@ -5873,7 +5940,7 @@
         <v>8</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
         <v>7</v>
@@ -5897,13 +5964,13 @@
         <v>21</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6128,7 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
         <v>17</v>
@@ -6079,7 +6146,7 @@
         <v>22</v>
       </c>
       <c r="AW31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-17-2012-13</t>
+          <t>2013-01-17</t>
         </is>
       </c>
     </row>
